--- a/test2_juraj/results/ics/results.xlsx
+++ b/test2_juraj/results/ics/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juraj/Documents/DXT/likwid/test2_juraj/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juraj/Documents/DXT/likwid/test2_juraj/results/ics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571419B-3069-0340-89C0-83568851EEDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E1BC9C-22BC-A84D-AC47-FAC16AB7819E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{4AEB01D3-22A3-9449-9BCA-2998EFA6BF88}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="2" xr2:uid="{4AEB01D3-22A3-9449-9BCA-2998EFA6BF88}"/>
   </bookViews>
   <sheets>
     <sheet name="thread 1 GB local, fixed iters" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="proc 1 GB, fixed iters" sheetId="4" r:id="rId3"/>
     <sheet name="proc 500MB, default iters" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="891">
   <si>
     <t>CPU Clock</t>
   </si>
@@ -2692,6 +2692,24 @@
   </si>
   <si>
     <t>Plus there is slow interconnect between NUMA domains S0 and S1</t>
+  </si>
+  <si>
+    <t>Statistics for MByte/s</t>
+  </si>
+  <si>
+    <t>NUMA1 Mbyte/s</t>
+  </si>
+  <si>
+    <t>NUMA2 Mbyte/s</t>
+  </si>
+  <si>
+    <t>Statistics for Time</t>
+  </si>
+  <si>
+    <t>NUMA1 (s)</t>
+  </si>
+  <si>
+    <t>NUMA2 (s)</t>
   </si>
 </sst>
 </file>
@@ -5028,6 +5046,907 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>One process per CPU core, 1GB local data, 100 iters</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'proc 1 GB, fixed iters'!$K$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUMA1 Mbyte/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'proc 1 GB, fixed iters'!$K$43:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13137.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12183.764999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10546.763333000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9058.7474999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7782.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6679.9583329999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5806.7385709999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5107.5487499999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4545.7055559999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4091.8910000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4090.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096.585</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4091.078</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4092.5230000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4095.9679999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4097.6469999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4093.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4090.0320000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4091.9189999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4091.2150000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31AF-9C46-B2B9-D3B254B13EA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'proc 1 GB, fixed iters'!$L$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUMA2 Mbyte/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'proc 1 GB, fixed iters'!$L$43:$L$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="10">
+                  <c:v>13042.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12164.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10503.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9035.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7748.7359999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6634.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6581.4342859999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5084.2524999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4533.622222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4080.7249999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31AF-9C46-B2B9-D3B254B13EA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1763779071"/>
+        <c:axId val="1763807439"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'proc 1 GB, fixed iters'!$N$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUMA1 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'proc 1 GB, fixed iters'!$N$43:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.612018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2076630000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4816219999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.039149999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.849349999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.970342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.221489999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.579046000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.998989999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.439384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.447543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.411182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.444157000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.435448000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.414805000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.404738999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.431145000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.450400999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.439126999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.443054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-31AF-9C46-B2B9-D3B254B13EA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'proc 1 GB, fixed iters'!$O$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUMA2 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'proc 1 GB, fixed iters'!$O$43:$O$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="10">
+                  <c:v>7.667008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2204859999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5210249999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.067392999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.905545999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.073126999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.229215999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.66873</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.057767999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.506074999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-31AF-9C46-B2B9-D3B254B13EA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1764703551"/>
+        <c:axId val="1764697103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1763779071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of overall processes</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>*Note that for S0 the number of proc is min(i,10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CH" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>and for S1 it is i-10</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CH" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1763807439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1763807439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>AVG Bandwidth per process on each socket (MBytes/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1763779071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1764697103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>AVG Time per process on each socket (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764703551"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1764703551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1764697103"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5715,6 +6634,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="697023919"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5924,6 +6844,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8027,6 +8987,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8148,6 +9624,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C941A857-0A43-794A-8678-01C123E7A2D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10006,7 +11518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE92C38-4764-4344-96E3-EF153C323237}">
   <dimension ref="B1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -11501,7 +13013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF51DA2-D314-6143-9D90-1D195CE849BD}">
   <dimension ref="A1:P425"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M32" workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
@@ -12770,7 +14282,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -12793,7 +14305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -12816,7 +14328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -12842,7 +14354,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -12865,7 +14377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -12888,7 +14400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -12911,7 +14423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -12934,7 +14446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -12957,7 +14469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -12979,8 +14491,14 @@
       <c r="G41" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>885</v>
+      </c>
+      <c r="M41" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -13002,8 +14520,26 @@
       <c r="G42" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>886</v>
+      </c>
+      <c r="L42" t="s">
+        <v>887</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>889</v>
+      </c>
+      <c r="O42" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -13025,8 +14561,20 @@
       <c r="G43" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>13137.12</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>7.612018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -13048,8 +14596,20 @@
       <c r="G44" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>12183.764999999999</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>8.2076630000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -13071,8 +14631,20 @@
       <c r="G45" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>10546.763333000001</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>9.4816219999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -13094,8 +14666,20 @@
       <c r="G46" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>9058.7474999999995</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>11.039149999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -13117,8 +14701,20 @@
       <c r="G47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>7782.56</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>12.849349999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -13140,8 +14736,20 @@
       <c r="G48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>6679.9583329999996</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>14.970342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -13163,8 +14771,20 @@
       <c r="G49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>5806.7385709999999</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>17.221489999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -13186,8 +14806,20 @@
       <c r="G50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <v>5107.5487499999999</v>
+      </c>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50">
+        <v>19.579046000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -13209,8 +14841,20 @@
       <c r="G51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>4545.7055559999999</v>
+      </c>
+      <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>21.998989999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -13232,8 +14876,20 @@
       <c r="G52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>4091.8910000000001</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>24.439384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -13255,8 +14911,26 @@
       <c r="G53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>11</v>
+      </c>
+      <c r="K53">
+        <v>4090.51</v>
+      </c>
+      <c r="L53">
+        <v>13042.9</v>
+      </c>
+      <c r="M53">
+        <v>11</v>
+      </c>
+      <c r="N53">
+        <v>24.447543</v>
+      </c>
+      <c r="O53">
+        <v>7.667008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -13278,8 +14952,26 @@
       <c r="G54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>4096.585</v>
+      </c>
+      <c r="L54">
+        <v>12164.73</v>
+      </c>
+      <c r="M54">
+        <v>12</v>
+      </c>
+      <c r="N54">
+        <v>24.411182</v>
+      </c>
+      <c r="O54">
+        <v>8.2204859999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -13301,8 +14993,26 @@
       <c r="G55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>13</v>
+      </c>
+      <c r="K55">
+        <v>4091.078</v>
+      </c>
+      <c r="L55">
+        <v>10503.08</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>24.444157000000001</v>
+      </c>
+      <c r="O55">
+        <v>9.5210249999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -13324,8 +15034,26 @@
       <c r="G56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>14</v>
+      </c>
+      <c r="K56">
+        <v>4092.5230000000001</v>
+      </c>
+      <c r="L56">
+        <v>9035.625</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>24.435448000000001</v>
+      </c>
+      <c r="O56">
+        <v>11.067392999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -13347,8 +15075,26 @@
       <c r="G57" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>15</v>
+      </c>
+      <c r="K57">
+        <v>4095.9679999999998</v>
+      </c>
+      <c r="L57">
+        <v>7748.7359999999999</v>
+      </c>
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>24.414805000000001</v>
+      </c>
+      <c r="O57">
+        <v>12.905545999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
@@ -13370,8 +15116,26 @@
       <c r="G58" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>16</v>
+      </c>
+      <c r="K58">
+        <v>4097.6469999999999</v>
+      </c>
+      <c r="L58">
+        <v>6634.41</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>24.404738999999999</v>
+      </c>
+      <c r="O58">
+        <v>15.073126999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -13393,8 +15157,26 @@
       <c r="G59" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>17</v>
+      </c>
+      <c r="K59">
+        <v>4093.24</v>
+      </c>
+      <c r="L59">
+        <v>6581.4342859999997</v>
+      </c>
+      <c r="M59">
+        <v>17</v>
+      </c>
+      <c r="N59">
+        <v>24.431145000000001</v>
+      </c>
+      <c r="O59">
+        <v>15.229215999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -13416,8 +15198,26 @@
       <c r="G60" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>4090.0320000000002</v>
+      </c>
+      <c r="L60">
+        <v>5084.2524999999996</v>
+      </c>
+      <c r="M60">
+        <v>18</v>
+      </c>
+      <c r="N60">
+        <v>24.450400999999999</v>
+      </c>
+      <c r="O60">
+        <v>19.66873</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -13439,8 +15239,26 @@
       <c r="G61" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>19</v>
+      </c>
+      <c r="K61">
+        <v>4091.9189999999999</v>
+      </c>
+      <c r="L61">
+        <v>4533.622222</v>
+      </c>
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>24.439126999999999</v>
+      </c>
+      <c r="O61">
+        <v>22.057767999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
@@ -13462,8 +15280,26 @@
       <c r="G62" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>20</v>
+      </c>
+      <c r="K62">
+        <v>4091.2150000000001</v>
+      </c>
+      <c r="L62">
+        <v>4080.7249999999999</v>
+      </c>
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>24.443054</v>
+      </c>
+      <c r="O62">
+        <v>24.506074999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
@@ -13486,7 +15322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>

--- a/test2_juraj/results/ics/results.xlsx
+++ b/test2_juraj/results/ics/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juraj/Documents/DXT/likwid/test2_juraj/results/ics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E1BC9C-22BC-A84D-AC47-FAC16AB7819E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7851FBC-5934-E743-90C4-2A66CC8AF80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="2" xr2:uid="{4AEB01D3-22A3-9449-9BCA-2998EFA6BF88}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="892">
   <si>
     <t>CPU Clock</t>
   </si>
@@ -2710,6 +2710,9 @@
   </si>
   <si>
     <t>NUMA2 (s)</t>
+  </si>
+  <si>
+    <t>Data generated using the process.sh script</t>
   </si>
 </sst>
 </file>
@@ -5630,6 +5633,7 @@
         <c:axId val="1763807439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13013,8 +13017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF51DA2-D314-6143-9D90-1D195CE849BD}">
   <dimension ref="A1:P425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M32" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14467,6 +14471,9 @@
       </c>
       <c r="G40" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
